--- a/censos/FORMATO 1 IDENTIFICACIÓN - Aprobado.xlsx
+++ b/censos/FORMATO 1 IDENTIFICACIÓN - Aprobado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\informesCenso\censos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soporte\Documents\GitHub\informesCenso\censos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B5BE3E-BFD2-4073-80DE-E6B4B92AEB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C471C93-656D-4AE3-893C-606DC47D226C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IDENTIFICACIÓN" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
   <si>
-    <t>MODIFICACIÓN DE LA LICENCIA AMBIENTAL GLOBAL DEL CAMPO BUCARÉ</t>
+    <t>ESTUDIO DE IMPACTO AMBIENTAL PARA EL AREA DE DESARROLLO BUCARE</t>
   </si>
   <si>
     <t xml:space="preserve">Encuesta No. </t>
@@ -793,7 +793,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,6 +839,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1156,7 +1162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1185,7 +1191,9 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1252,23 +1260,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1280,16 +1290,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1298,8 +1308,9 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1546,10 +1557,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1564,16 +1575,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1585,13 +1596,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1649,22 +1660,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>194830</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>22547</xdr:rowOff>
+      <xdr:colOff>4330</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>232097</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Imagen 3" descr="SGI SAS on Twitter: &quot;Servicios Geológicos Integrados SGI s.a.s., es una  empresa de consultoría, interventoría y servicios profesionales,  especializada en las áreas de planeación para el uso sostenible de  recursos, ingenieria, ambiente,">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885F89CA-F7C3-40E2-9958-22E875670171}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6430583-70BA-4730-9153-2535CAAE50CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1687,8 +1698,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="104775" y="228600"/>
-          <a:ext cx="1823605" cy="508322"/>
+          <a:off x="171450" y="200025"/>
+          <a:ext cx="1566430" cy="508322"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2014,103 +2025,103 @@
   <dimension ref="A1:AE103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG14" sqref="AG14"/>
+      <selection activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" style="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" style="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" style="49" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" style="49" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.5703125" style="49" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" style="49" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.85546875" style="49" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" style="49" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="49" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.140625" style="50" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="4.28515625" style="49" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4" style="49" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.85546875" style="49" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8" style="49" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.28515625" style="49" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.85546875" style="49" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.42578125" style="49" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.85546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="4.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="60" t="s">
+      <c r="A1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="66" t="s">
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="67"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
     </row>
     <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="69" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="70"/>
       <c r="W2" s="5" t="s">
         <v>3</v>
       </c>
@@ -2118,327 +2129,322 @@
       <c r="Y2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="73" t="s">
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
     </row>
     <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="60" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="80" t="s">
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="81"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="85"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="84"/>
     </row>
     <row r="4" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="86" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="87"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="86"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="86"/>
-      <c r="AE4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="85"/>
     </row>
     <row r="5" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="89"/>
-      <c r="W5" s="89"/>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="89"/>
-      <c r="Z5" s="89"/>
-      <c r="AA5" s="89"/>
-      <c r="AB5" s="89"/>
-      <c r="AC5" s="89"/>
-      <c r="AD5" s="89"/>
-      <c r="AE5" s="91"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="90"/>
     </row>
     <row r="6" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="94"/>
-      <c r="T6" s="93"/>
-      <c r="U6" s="94"/>
-      <c r="V6" s="93"/>
-      <c r="W6" s="93"/>
-      <c r="X6" s="93"/>
-      <c r="Y6" s="93"/>
-      <c r="Z6" s="93"/>
-      <c r="AA6" s="93"/>
-      <c r="AB6" s="93"/>
-      <c r="AC6" s="93"/>
-      <c r="AD6" s="93"/>
-      <c r="AE6" s="95"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="92"/>
+      <c r="AA6" s="92"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="92"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="94"/>
     </row>
     <row r="7" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="99" t="s">
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="103" t="s">
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="100"/>
-      <c r="AA7" s="100"/>
-      <c r="AB7" s="100"/>
-      <c r="AC7" s="100"/>
-      <c r="AD7" s="100"/>
-      <c r="AE7" s="102"/>
+      <c r="V7" s="99"/>
+      <c r="W7" s="99"/>
+      <c r="X7" s="99"/>
+      <c r="Y7" s="99"/>
+      <c r="Z7" s="99"/>
+      <c r="AA7" s="99"/>
+      <c r="AB7" s="99"/>
+      <c r="AC7" s="99"/>
+      <c r="AD7" s="99"/>
+      <c r="AE7" s="101"/>
     </row>
     <row r="8" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="89"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="91"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="89"/>
-      <c r="W8" s="89"/>
-      <c r="X8" s="89"/>
-      <c r="Y8" s="89"/>
-      <c r="Z8" s="89"/>
-      <c r="AA8" s="89"/>
-      <c r="AB8" s="89"/>
-      <c r="AC8" s="89"/>
-      <c r="AD8" s="89"/>
-      <c r="AE8" s="91"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="88"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="88"/>
+      <c r="AD8" s="88"/>
+      <c r="AE8" s="90"/>
     </row>
     <row r="9" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="109" t="s">
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="110"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="111"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="110"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="110"/>
       <c r="Z9" s="8"/>
-      <c r="AA9" s="118" t="s">
+      <c r="AA9" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="53"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="51"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="52"/>
     </row>
     <row r="10" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="113"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="114"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="113"/>
       <c r="V10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="W10" s="6"/>
-      <c r="X10" s="10"/>
       <c r="Y10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="Z10" s="13"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="56"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="55"/>
     </row>
     <row r="11" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="115"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="117"/>
-      <c r="T11" s="116"/>
-      <c r="U11" s="117"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="114"/>
+      <c r="R11" s="115"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="115"/>
+      <c r="U11" s="116"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
       <c r="X11" s="14"/>
       <c r="Y11" s="14"/>
       <c r="Z11" s="14"/>
@@ -2449,364 +2455,364 @@
       <c r="AE11" s="16"/>
     </row>
     <row r="12" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="119"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="119"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="59"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="118"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="118"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="118"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="58"/>
     </row>
     <row r="13" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="94"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="93"/>
-      <c r="AB13" s="93"/>
-      <c r="AC13" s="93"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="121"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="92"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="92"/>
+      <c r="Y13" s="92"/>
+      <c r="Z13" s="92"/>
+      <c r="AA13" s="92"/>
+      <c r="AB13" s="92"/>
+      <c r="AC13" s="92"/>
+      <c r="AD13" s="92"/>
+      <c r="AE13" s="120"/>
     </row>
     <row r="14" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="89"/>
-      <c r="AC14" s="89"/>
-      <c r="AD14" s="89"/>
-      <c r="AE14" s="91"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="88"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="88"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="88"/>
+      <c r="AB14" s="88"/>
+      <c r="AC14" s="88"/>
+      <c r="AD14" s="88"/>
+      <c r="AE14" s="90"/>
     </row>
     <row r="15" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="100"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="103" t="s">
+      <c r="B15" s="99"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="R15" s="100"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="108"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="89"/>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="89"/>
-      <c r="AB15" s="89"/>
-      <c r="AC15" s="89"/>
-      <c r="AD15" s="89"/>
-      <c r="AE15" s="91"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="100"/>
+      <c r="T15" s="101"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="88"/>
+      <c r="W15" s="88"/>
+      <c r="X15" s="88"/>
+      <c r="Y15" s="88"/>
+      <c r="Z15" s="88"/>
+      <c r="AA15" s="88"/>
+      <c r="AB15" s="88"/>
+      <c r="AC15" s="88"/>
+      <c r="AD15" s="88"/>
+      <c r="AE15" s="90"/>
     </row>
     <row r="16" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="103" t="s">
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="88"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="R16" s="100"/>
-      <c r="S16" s="101"/>
-      <c r="T16" s="100"/>
-      <c r="U16" s="101"/>
-      <c r="V16" s="102"/>
-      <c r="W16" s="107"/>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="89"/>
-      <c r="Z16" s="89"/>
-      <c r="AA16" s="89"/>
-      <c r="AB16" s="89"/>
-      <c r="AC16" s="89"/>
-      <c r="AD16" s="89"/>
-      <c r="AE16" s="91"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="100"/>
+      <c r="T16" s="99"/>
+      <c r="U16" s="100"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="106"/>
+      <c r="X16" s="88"/>
+      <c r="Y16" s="88"/>
+      <c r="Z16" s="88"/>
+      <c r="AA16" s="88"/>
+      <c r="AB16" s="88"/>
+      <c r="AC16" s="88"/>
+      <c r="AD16" s="88"/>
+      <c r="AE16" s="90"/>
     </row>
     <row r="17" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="107" t="s">
+      <c r="B17" s="99"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="89"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="108"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="91"/>
-      <c r="U17" s="103" t="s">
+      <c r="O17" s="88"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="107"/>
+      <c r="R17" s="88"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="V17" s="100"/>
-      <c r="W17" s="100"/>
-      <c r="X17" s="102"/>
-      <c r="Y17" s="107"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="89"/>
-      <c r="AB17" s="89"/>
-      <c r="AC17" s="89"/>
-      <c r="AD17" s="89"/>
-      <c r="AE17" s="91"/>
+      <c r="V17" s="99"/>
+      <c r="W17" s="99"/>
+      <c r="X17" s="101"/>
+      <c r="Y17" s="106"/>
+      <c r="Z17" s="88"/>
+      <c r="AA17" s="88"/>
+      <c r="AB17" s="88"/>
+      <c r="AC17" s="88"/>
+      <c r="AD17" s="88"/>
+      <c r="AE17" s="90"/>
     </row>
     <row r="18" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="100"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="99" t="s">
+      <c r="B18" s="99"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="100"/>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="91"/>
-      <c r="U18" s="103" t="s">
+      <c r="O18" s="99"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="88"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="V18" s="100"/>
-      <c r="W18" s="100"/>
-      <c r="X18" s="100"/>
-      <c r="Y18" s="102"/>
-      <c r="Z18" s="107"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="91"/>
+      <c r="V18" s="99"/>
+      <c r="W18" s="99"/>
+      <c r="X18" s="99"/>
+      <c r="Y18" s="101"/>
+      <c r="Z18" s="106"/>
+      <c r="AA18" s="88"/>
+      <c r="AB18" s="88"/>
+      <c r="AC18" s="88"/>
+      <c r="AD18" s="88"/>
+      <c r="AE18" s="90"/>
     </row>
     <row r="19" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="122"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="122"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="122"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="55"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="55"/>
-      <c r="AA19" s="55"/>
-      <c r="AB19" s="55"/>
-      <c r="AC19" s="55"/>
-      <c r="AD19" s="55"/>
-      <c r="AE19" s="55"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="121"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="121"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="121"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="54"/>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="54"/>
+      <c r="AE19" s="54"/>
     </row>
     <row r="20" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="94"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="94"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="93"/>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="93"/>
-      <c r="Z20" s="93"/>
-      <c r="AA20" s="93"/>
-      <c r="AB20" s="93"/>
-      <c r="AC20" s="93"/>
-      <c r="AD20" s="93"/>
-      <c r="AE20" s="95"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="93"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="92"/>
+      <c r="W20" s="92"/>
+      <c r="X20" s="92"/>
+      <c r="Y20" s="92"/>
+      <c r="Z20" s="92"/>
+      <c r="AA20" s="92"/>
+      <c r="AB20" s="92"/>
+      <c r="AC20" s="92"/>
+      <c r="AD20" s="92"/>
+      <c r="AE20" s="94"/>
     </row>
     <row r="21" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="123" t="s">
+      <c r="A21" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="110"/>
-      <c r="N21" s="110"/>
-      <c r="O21" s="124"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="109"/>
+      <c r="N21" s="109"/>
+      <c r="O21" s="123"/>
       <c r="P21" s="8"/>
-      <c r="Q21" s="111" t="s">
+      <c r="Q21" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="R21" s="110"/>
-      <c r="S21" s="111"/>
-      <c r="T21" s="110"/>
-      <c r="U21" s="111"/>
-      <c r="V21" s="110"/>
-      <c r="W21" s="110"/>
-      <c r="X21" s="110"/>
-      <c r="Y21" s="110"/>
-      <c r="Z21" s="110"/>
-      <c r="AA21" s="110"/>
-      <c r="AB21" s="110"/>
-      <c r="AC21" s="110"/>
-      <c r="AD21" s="110"/>
-      <c r="AE21" s="124"/>
+      <c r="R21" s="109"/>
+      <c r="S21" s="110"/>
+      <c r="T21" s="109"/>
+      <c r="U21" s="110"/>
+      <c r="V21" s="109"/>
+      <c r="W21" s="109"/>
+      <c r="X21" s="109"/>
+      <c r="Y21" s="109"/>
+      <c r="Z21" s="109"/>
+      <c r="AA21" s="109"/>
+      <c r="AB21" s="109"/>
+      <c r="AC21" s="109"/>
+      <c r="AD21" s="109"/>
+      <c r="AE21" s="123"/>
     </row>
     <row r="22" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
@@ -2824,7 +2830,6 @@
       <c r="M22" s="11"/>
       <c r="N22" s="14"/>
       <c r="O22" s="21"/>
-      <c r="P22" s="10"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
@@ -2842,36 +2847,34 @@
       <c r="AE22" s="21"/>
     </row>
     <row r="23" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="125" t="s">
+      <c r="A23" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="126"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="125"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="113" t="s">
+      <c r="I23" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="126"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="125"/>
       <c r="N23" s="13"/>
       <c r="O23" s="21"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="114" t="s">
+      <c r="Q23" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="R23" s="113"/>
-      <c r="S23" s="114"/>
-      <c r="T23" s="113"/>
-      <c r="U23" s="114"/>
-      <c r="V23" s="113"/>
-      <c r="W23" s="113"/>
-      <c r="X23" s="126"/>
+      <c r="R23" s="112"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="112"/>
+      <c r="U23" s="113"/>
+      <c r="V23" s="112"/>
+      <c r="W23" s="112"/>
+      <c r="X23" s="125"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="11"/>
       <c r="AA23" s="11"/>
@@ -2881,36 +2884,34 @@
       <c r="AE23" s="21"/>
     </row>
     <row r="24" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="125" t="s">
+      <c r="A24" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="126"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="125"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="113" t="s">
+      <c r="I24" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="126"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="112"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="125"/>
       <c r="N24" s="13"/>
       <c r="O24" s="21"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="114" t="s">
+      <c r="Q24" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="R24" s="113"/>
-      <c r="S24" s="114"/>
-      <c r="T24" s="113"/>
-      <c r="U24" s="114"/>
-      <c r="V24" s="113"/>
-      <c r="W24" s="113"/>
-      <c r="X24" s="126"/>
+      <c r="R24" s="112"/>
+      <c r="S24" s="113"/>
+      <c r="T24" s="112"/>
+      <c r="U24" s="113"/>
+      <c r="V24" s="112"/>
+      <c r="W24" s="112"/>
+      <c r="X24" s="125"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="11"/>
       <c r="AA24" s="11" t="s">
@@ -2922,77 +2923,73 @@
       <c r="AE24" s="21"/>
     </row>
     <row r="25" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="125" t="s">
+      <c r="A25" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="126"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="125"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="113" t="s">
+      <c r="I25" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="113"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="126"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="112"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="125"/>
       <c r="N25" s="13"/>
       <c r="O25" s="21"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="114" t="s">
+      <c r="Q25" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="R25" s="113"/>
-      <c r="S25" s="114"/>
-      <c r="T25" s="113"/>
-      <c r="U25" s="114"/>
-      <c r="V25" s="113"/>
-      <c r="W25" s="113"/>
-      <c r="X25" s="126"/>
+      <c r="R25" s="112"/>
+      <c r="S25" s="113"/>
+      <c r="T25" s="112"/>
+      <c r="U25" s="113"/>
+      <c r="V25" s="112"/>
+      <c r="W25" s="112"/>
+      <c r="X25" s="125"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="11"/>
-      <c r="AA25" s="116" t="s">
+      <c r="AA25" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="AB25" s="116"/>
-      <c r="AC25" s="116"/>
-      <c r="AD25" s="116"/>
-      <c r="AE25" s="127"/>
+      <c r="AB25" s="115"/>
+      <c r="AC25" s="115"/>
+      <c r="AD25" s="115"/>
+      <c r="AE25" s="126"/>
     </row>
     <row r="26" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="125" t="s">
+      <c r="A26" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="126"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="125"/>
       <c r="G26" s="22"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="113" t="s">
+      <c r="I26" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="J26" s="113"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="116"/>
-      <c r="N26" s="116"/>
-      <c r="O26" s="127"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="114" t="s">
+      <c r="J26" s="112"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="115"/>
+      <c r="O26" s="126"/>
+      <c r="Q26" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="R26" s="113"/>
-      <c r="S26" s="114"/>
-      <c r="T26" s="113"/>
-      <c r="U26" s="114"/>
-      <c r="V26" s="113"/>
-      <c r="W26" s="113"/>
-      <c r="X26" s="126"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="113"/>
+      <c r="T26" s="112"/>
+      <c r="U26" s="113"/>
+      <c r="V26" s="112"/>
+      <c r="W26" s="112"/>
+      <c r="X26" s="125"/>
       <c r="Y26" s="13"/>
       <c r="Z26" s="11"/>
       <c r="AA26" s="11"/>
@@ -3009,7 +3006,6 @@
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="23"/>
-      <c r="H27" s="10"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
@@ -3017,7 +3013,6 @@
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="21"/>
-      <c r="P27" s="10"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
@@ -3042,7 +3037,6 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="23"/>
-      <c r="H28" s="10"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
@@ -3050,7 +3044,6 @@
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="16"/>
-      <c r="P28" s="10"/>
       <c r="Q28" s="12"/>
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
@@ -3068,175 +3061,168 @@
       <c r="AE28" s="16"/>
     </row>
     <row r="29" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="123" t="s">
+      <c r="A29" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="110"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="110"/>
-      <c r="M29" s="110"/>
-      <c r="N29" s="110"/>
-      <c r="O29" s="124"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="109"/>
+      <c r="M29" s="109"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="123"/>
       <c r="P29" s="18"/>
-      <c r="Q29" s="111" t="s">
+      <c r="Q29" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="R29" s="110"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="110"/>
-      <c r="U29" s="111"/>
-      <c r="V29" s="110"/>
-      <c r="W29" s="110"/>
-      <c r="X29" s="110"/>
-      <c r="Y29" s="110"/>
-      <c r="Z29" s="110"/>
-      <c r="AA29" s="110"/>
-      <c r="AB29" s="110"/>
-      <c r="AC29" s="110"/>
-      <c r="AD29" s="110"/>
-      <c r="AE29" s="124"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="109"/>
+      <c r="U29" s="110"/>
+      <c r="V29" s="109"/>
+      <c r="W29" s="109"/>
+      <c r="X29" s="109"/>
+      <c r="Y29" s="109"/>
+      <c r="Z29" s="109"/>
+      <c r="AA29" s="109"/>
+      <c r="AB29" s="109"/>
+      <c r="AC29" s="109"/>
+      <c r="AD29" s="109"/>
+      <c r="AE29" s="123"/>
     </row>
     <row r="30" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="125" t="s">
+      <c r="A30" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="126"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="125"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="10"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="128" t="s">
+      <c r="O30" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="119"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="119"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="119"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
-      <c r="Y30" s="58"/>
-      <c r="Z30" s="58"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="59"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="118"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="118"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="118"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="57"/>
+      <c r="AB30" s="57"/>
+      <c r="AC30" s="57"/>
+      <c r="AD30" s="57"/>
+      <c r="AE30" s="58"/>
     </row>
     <row r="31" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="125" t="s">
+      <c r="A31" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="126"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="125"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="113" t="s">
+      <c r="I31" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="J31" s="113"/>
-      <c r="K31" s="113"/>
-      <c r="L31" s="126"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="125"/>
       <c r="M31" s="13"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="55"/>
+      <c r="O31" s="54"/>
       <c r="P31" s="18"/>
-      <c r="Q31" s="111" t="s">
+      <c r="Q31" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="R31" s="110"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="110"/>
-      <c r="U31" s="111"/>
-      <c r="V31" s="110"/>
-      <c r="W31" s="110"/>
-      <c r="X31" s="110"/>
-      <c r="Y31" s="110"/>
-      <c r="Z31" s="110"/>
-      <c r="AA31" s="110"/>
-      <c r="AB31" s="110"/>
-      <c r="AC31" s="110"/>
-      <c r="AD31" s="110"/>
-      <c r="AE31" s="124"/>
+      <c r="R31" s="109"/>
+      <c r="S31" s="110"/>
+      <c r="T31" s="109"/>
+      <c r="U31" s="110"/>
+      <c r="V31" s="109"/>
+      <c r="W31" s="109"/>
+      <c r="X31" s="109"/>
+      <c r="Y31" s="109"/>
+      <c r="Z31" s="109"/>
+      <c r="AA31" s="109"/>
+      <c r="AB31" s="109"/>
+      <c r="AC31" s="109"/>
+      <c r="AD31" s="109"/>
+      <c r="AE31" s="123"/>
     </row>
     <row r="32" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="125" t="s">
+      <c r="A32" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="126"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="125"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="113" t="s">
+      <c r="I32" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="J32" s="113"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="126"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="125"/>
       <c r="M32" s="13"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="55"/>
+      <c r="O32" s="54"/>
       <c r="P32" s="20"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="122"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="122"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="55"/>
-      <c r="AA32" s="55"/>
-      <c r="AB32" s="55"/>
-      <c r="AC32" s="55"/>
-      <c r="AD32" s="55"/>
-      <c r="AE32" s="56"/>
+      <c r="Q32" s="121"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="121"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="121"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="54"/>
+      <c r="Y32" s="54"/>
+      <c r="Z32" s="54"/>
+      <c r="AA32" s="54"/>
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="54"/>
+      <c r="AD32" s="54"/>
+      <c r="AE32" s="55"/>
     </row>
     <row r="33" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="125" t="s">
+      <c r="A33" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="126"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="125"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="113" t="s">
+      <c r="I33" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="J33" s="113"/>
-      <c r="K33" s="113"/>
-      <c r="L33" s="126"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="112"/>
+      <c r="L33" s="125"/>
       <c r="M33" s="24"/>
       <c r="N33" s="11"/>
-      <c r="O33" s="55"/>
+      <c r="O33" s="54"/>
       <c r="P33" s="20"/>
       <c r="Q33" s="12"/>
       <c r="R33" s="11"/>
@@ -3258,23 +3244,23 @@
       <c r="AD33" s="11"/>
       <c r="AE33" s="21"/>
     </row>
-    <row r="34" spans="1:31" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="129" t="s">
+    <row r="34" spans="1:31" s="25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="130"/>
-      <c r="C34" s="130"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="130"/>
-      <c r="F34" s="131"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="130"/>
       <c r="G34" s="27"/>
       <c r="H34" s="26"/>
-      <c r="I34" s="130" t="s">
+      <c r="I34" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="J34" s="130"/>
-      <c r="K34" s="130"/>
-      <c r="L34" s="130"/>
+      <c r="J34" s="129"/>
+      <c r="K34" s="129"/>
+      <c r="L34" s="129"/>
       <c r="M34" s="28"/>
       <c r="N34" s="26"/>
       <c r="O34" s="29"/>
@@ -3307,9 +3293,6 @@
       <c r="I35" s="11"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
       <c r="O35" s="21"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="12"/>
@@ -3317,69 +3300,62 @@
       <c r="S35" s="33"/>
       <c r="T35" s="11"/>
       <c r="U35" s="33"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
       <c r="Z35" s="11"/>
-      <c r="AA35" s="10"/>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="10"/>
-      <c r="AD35" s="10"/>
       <c r="AE35" s="21"/>
     </row>
-    <row r="36" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="123" t="s">
+    <row r="36" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="110"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="110"/>
-      <c r="M36" s="110"/>
-      <c r="N36" s="110"/>
-      <c r="O36" s="124"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="114" t="s">
+      <c r="B36" s="109"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="109"/>
+      <c r="I36" s="109"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="109"/>
+      <c r="L36" s="109"/>
+      <c r="M36" s="109"/>
+      <c r="N36" s="109"/>
+      <c r="O36" s="123"/>
+      <c r="Q36" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="R36" s="113"/>
-      <c r="S36" s="114"/>
-      <c r="T36" s="113"/>
-      <c r="U36" s="114"/>
-      <c r="V36" s="113"/>
-      <c r="W36" s="113"/>
-      <c r="X36" s="113"/>
-      <c r="Y36" s="113"/>
-      <c r="Z36" s="113"/>
-      <c r="AA36" s="113"/>
-      <c r="AB36" s="113"/>
-      <c r="AC36" s="113"/>
-      <c r="AD36" s="113"/>
-      <c r="AE36" s="126"/>
-    </row>
-    <row r="37" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R36" s="112"/>
+      <c r="S36" s="113"/>
+      <c r="T36" s="112"/>
+      <c r="U36" s="113"/>
+      <c r="V36" s="112"/>
+      <c r="W36" s="112"/>
+      <c r="X36" s="112"/>
+      <c r="Y36" s="112"/>
+      <c r="Z36" s="112"/>
+      <c r="AA36" s="112"/>
+      <c r="AB36" s="112"/>
+      <c r="AC36" s="112"/>
+      <c r="AD36" s="112"/>
+      <c r="AE36" s="125"/>
+    </row>
+    <row r="37" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="58"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
       <c r="O37" s="34"/>
       <c r="P37" s="35"/>
       <c r="Q37" s="36"/>
@@ -3398,7 +3374,7 @@
       <c r="AD37" s="35"/>
       <c r="AE37" s="34"/>
     </row>
-    <row r="38" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -3431,89 +3407,75 @@
       <c r="AD38" s="35"/>
       <c r="AE38" s="34"/>
     </row>
-    <row r="39" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="123" t="s">
+    <row r="39" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="110"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="132" t="s">
+      <c r="I39" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="J39" s="110"/>
-      <c r="K39" s="110"/>
-      <c r="L39" s="110"/>
-      <c r="M39" s="110"/>
-      <c r="N39" s="110"/>
-      <c r="O39" s="124"/>
+      <c r="J39" s="109"/>
+      <c r="K39" s="109"/>
+      <c r="L39" s="109"/>
+      <c r="M39" s="109"/>
+      <c r="N39" s="109"/>
+      <c r="O39" s="123"/>
       <c r="P39" s="35"/>
-      <c r="Q39" s="133" t="s">
+      <c r="Q39" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="R39" s="134"/>
-      <c r="S39" s="133"/>
-      <c r="T39" s="134"/>
-      <c r="U39" s="133"/>
-      <c r="V39" s="134"/>
-      <c r="W39" s="10"/>
+      <c r="R39" s="133"/>
+      <c r="S39" s="132"/>
+      <c r="T39" s="133"/>
+      <c r="U39" s="132"/>
+      <c r="V39" s="133"/>
       <c r="X39" s="13"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="10"/>
-      <c r="AD39" s="10"/>
       <c r="AE39" s="21"/>
     </row>
-    <row r="40" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="125" t="s">
+    <row r="40" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="113"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="126"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="125"/>
       <c r="E40" s="6"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="125"/>
-      <c r="J40" s="113"/>
-      <c r="K40" s="113"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="113"/>
-      <c r="N40" s="113"/>
-      <c r="O40" s="126"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="112"/>
+      <c r="K40" s="112"/>
+      <c r="L40" s="112"/>
+      <c r="M40" s="112"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="125"/>
       <c r="P40" s="35"/>
-      <c r="Q40" s="133" t="s">
+      <c r="Q40" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="R40" s="134"/>
-      <c r="S40" s="133"/>
-      <c r="T40" s="134"/>
-      <c r="U40" s="133"/>
-      <c r="V40" s="134"/>
-      <c r="W40" s="10"/>
+      <c r="R40" s="133"/>
+      <c r="S40" s="132"/>
+      <c r="T40" s="133"/>
+      <c r="U40" s="132"/>
+      <c r="V40" s="133"/>
       <c r="X40" s="13"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="10"/>
-      <c r="AC40" s="10"/>
-      <c r="AD40" s="10"/>
       <c r="AE40" s="21"/>
     </row>
-    <row r="41" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="125" t="s">
+    <row r="41" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="113"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="126"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="125"/>
       <c r="E41" s="6"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -3521,102 +3483,80 @@
       <c r="I41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="59"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="58"/>
       <c r="P41" s="35"/>
-      <c r="Q41" s="133" t="s">
+      <c r="Q41" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="R41" s="134"/>
-      <c r="S41" s="133"/>
-      <c r="T41" s="134"/>
-      <c r="U41" s="133"/>
-      <c r="V41" s="134"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="135"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-      <c r="AB41" s="10"/>
-      <c r="AC41" s="10"/>
-      <c r="AD41" s="10"/>
+      <c r="R41" s="133"/>
+      <c r="S41" s="132"/>
+      <c r="T41" s="133"/>
+      <c r="U41" s="132"/>
+      <c r="V41" s="133"/>
+      <c r="X41" s="134"/>
       <c r="AE41" s="21"/>
     </row>
-    <row r="42" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="137" t="s">
+    <row r="42" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="113"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="135"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="134"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="138"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="56"/>
+      <c r="I42" s="137"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="55"/>
       <c r="P42" s="35"/>
       <c r="Q42" s="33"/>
       <c r="R42" s="23"/>
       <c r="S42" s="33"/>
       <c r="T42" s="11"/>
       <c r="U42" s="33"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="136"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-      <c r="AB42" s="10"/>
-      <c r="AC42" s="10"/>
-      <c r="AD42" s="10"/>
+      <c r="X42" s="135"/>
       <c r="AE42" s="21"/>
     </row>
-    <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="125"/>
-      <c r="B43" s="113"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="126"/>
-      <c r="E43" s="136"/>
+    <row r="43" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="124"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="135"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="4"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="55"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="55"/>
-      <c r="O43" s="56"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="55"/>
       <c r="P43" s="35"/>
-      <c r="Q43" s="133" t="s">
+      <c r="Q43" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="R43" s="134"/>
-      <c r="S43" s="133"/>
-      <c r="T43" s="134"/>
-      <c r="U43" s="133"/>
-      <c r="V43" s="134"/>
-      <c r="W43" s="10"/>
+      <c r="R43" s="133"/>
+      <c r="S43" s="132"/>
+      <c r="T43" s="133"/>
+      <c r="U43" s="132"/>
+      <c r="V43" s="133"/>
       <c r="X43" s="13"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-      <c r="AB43" s="10"/>
-      <c r="AC43" s="10"/>
-      <c r="AD43" s="10"/>
       <c r="AE43" s="21"/>
     </row>
-    <row r="44" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>73</v>
       </c>
@@ -3627,155 +3567,140 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="55"/>
-      <c r="O44" s="56"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="55"/>
       <c r="P44" s="35"/>
-      <c r="Q44" s="133" t="s">
+      <c r="Q44" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="R44" s="134"/>
-      <c r="S44" s="133"/>
-      <c r="T44" s="134"/>
-      <c r="U44" s="133"/>
-      <c r="V44" s="134"/>
-      <c r="W44" s="10"/>
+      <c r="R44" s="133"/>
+      <c r="S44" s="132"/>
+      <c r="T44" s="133"/>
+      <c r="U44" s="132"/>
+      <c r="V44" s="133"/>
       <c r="X44" s="13"/>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="10"/>
-      <c r="AA44" s="10"/>
-      <c r="AB44" s="10"/>
-      <c r="AC44" s="10"/>
-      <c r="AD44" s="10"/>
       <c r="AE44" s="21"/>
     </row>
-    <row r="45" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>74</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="116"/>
-      <c r="G45" s="116"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="55"/>
-      <c r="M45" s="55"/>
-      <c r="N45" s="55"/>
-      <c r="O45" s="56"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="55"/>
       <c r="P45" s="35"/>
       <c r="Q45" s="36" t="s">
         <v>75</v>
       </c>
       <c r="R45" s="23"/>
-      <c r="S45" s="117"/>
-      <c r="T45" s="116"/>
-      <c r="U45" s="117"/>
-      <c r="V45" s="116"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="10"/>
-      <c r="AB45" s="10"/>
-      <c r="AC45" s="10"/>
-      <c r="AD45" s="10"/>
+      <c r="S45" s="116"/>
+      <c r="T45" s="115"/>
+      <c r="U45" s="116"/>
+      <c r="V45" s="115"/>
       <c r="AE45" s="21"/>
     </row>
-    <row r="46" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="58"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="58"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="139"/>
-      <c r="Q46" s="140"/>
-      <c r="R46" s="141"/>
-      <c r="S46" s="140"/>
-      <c r="T46" s="141"/>
-      <c r="U46" s="140"/>
-      <c r="V46" s="141"/>
-      <c r="W46" s="141"/>
-      <c r="X46" s="141"/>
-      <c r="Y46" s="141"/>
-      <c r="Z46" s="141"/>
-      <c r="AA46" s="141"/>
-      <c r="AB46" s="141"/>
-      <c r="AC46" s="141"/>
-      <c r="AD46" s="141"/>
-      <c r="AE46" s="142"/>
-    </row>
-    <row r="47" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="143" t="s">
+    <row r="46" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="56"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="138"/>
+      <c r="Q46" s="139"/>
+      <c r="R46" s="140"/>
+      <c r="S46" s="139"/>
+      <c r="T46" s="140"/>
+      <c r="U46" s="139"/>
+      <c r="V46" s="140"/>
+      <c r="W46" s="140"/>
+      <c r="X46" s="140"/>
+      <c r="Y46" s="140"/>
+      <c r="Z46" s="140"/>
+      <c r="AA46" s="140"/>
+      <c r="AB46" s="140"/>
+      <c r="AC46" s="140"/>
+      <c r="AD46" s="140"/>
+      <c r="AE46" s="141"/>
+    </row>
+    <row r="47" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="144"/>
-      <c r="C47" s="144"/>
-      <c r="D47" s="144"/>
-      <c r="E47" s="144"/>
-      <c r="F47" s="144"/>
-      <c r="G47" s="144"/>
-      <c r="H47" s="144"/>
-      <c r="I47" s="144"/>
-      <c r="J47" s="144"/>
-      <c r="K47" s="144"/>
-      <c r="L47" s="144"/>
-      <c r="M47" s="144"/>
-      <c r="N47" s="144"/>
-      <c r="O47" s="145"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="143"/>
+      <c r="E47" s="143"/>
+      <c r="F47" s="143"/>
+      <c r="G47" s="143"/>
+      <c r="H47" s="143"/>
+      <c r="I47" s="143"/>
+      <c r="J47" s="143"/>
+      <c r="K47" s="143"/>
+      <c r="L47" s="143"/>
+      <c r="M47" s="143"/>
+      <c r="N47" s="143"/>
+      <c r="O47" s="144"/>
       <c r="P47" s="39"/>
-      <c r="Q47" s="146" t="s">
+      <c r="Q47" s="145" t="s">
         <v>77</v>
       </c>
-      <c r="R47" s="147"/>
-      <c r="S47" s="146"/>
-      <c r="T47" s="147"/>
-      <c r="U47" s="146"/>
-      <c r="V47" s="147"/>
-      <c r="W47" s="147"/>
-      <c r="X47" s="147"/>
-      <c r="Y47" s="147"/>
-      <c r="Z47" s="147"/>
-      <c r="AA47" s="147"/>
-      <c r="AB47" s="147"/>
-      <c r="AC47" s="147"/>
-      <c r="AD47" s="147"/>
-      <c r="AE47" s="148"/>
-    </row>
-    <row r="48" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="149"/>
-      <c r="B48" s="150"/>
-      <c r="C48" s="150"/>
-      <c r="D48" s="150"/>
-      <c r="E48" s="150"/>
-      <c r="F48" s="150"/>
-      <c r="G48" s="150"/>
-      <c r="H48" s="150"/>
-      <c r="I48" s="150"/>
-      <c r="J48" s="150"/>
-      <c r="K48" s="150"/>
-      <c r="L48" s="150"/>
-      <c r="M48" s="150"/>
-      <c r="N48" s="150"/>
-      <c r="O48" s="151"/>
+      <c r="R47" s="146"/>
+      <c r="S47" s="145"/>
+      <c r="T47" s="146"/>
+      <c r="U47" s="145"/>
+      <c r="V47" s="146"/>
+      <c r="W47" s="146"/>
+      <c r="X47" s="146"/>
+      <c r="Y47" s="146"/>
+      <c r="Z47" s="146"/>
+      <c r="AA47" s="146"/>
+      <c r="AB47" s="146"/>
+      <c r="AC47" s="146"/>
+      <c r="AD47" s="146"/>
+      <c r="AE47" s="147"/>
+    </row>
+    <row r="48" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="148"/>
+      <c r="B48" s="149"/>
+      <c r="C48" s="149"/>
+      <c r="D48" s="149"/>
+      <c r="E48" s="149"/>
+      <c r="F48" s="149"/>
+      <c r="G48" s="149"/>
+      <c r="H48" s="149"/>
+      <c r="I48" s="149"/>
+      <c r="J48" s="149"/>
+      <c r="K48" s="149"/>
+      <c r="L48" s="149"/>
+      <c r="M48" s="149"/>
+      <c r="N48" s="149"/>
+      <c r="O48" s="150"/>
       <c r="P48" s="35"/>
       <c r="Q48" s="36"/>
       <c r="R48" s="23"/>
@@ -3791,46 +3716,42 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
-      <c r="AA48" s="10"/>
-      <c r="AB48" s="10"/>
-      <c r="AC48" s="10"/>
-      <c r="AD48" s="10"/>
       <c r="AE48" s="21"/>
     </row>
-    <row r="49" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="152"/>
-      <c r="B49" s="153"/>
-      <c r="C49" s="153"/>
-      <c r="D49" s="153"/>
-      <c r="E49" s="153"/>
-      <c r="F49" s="153"/>
-      <c r="G49" s="153"/>
-      <c r="H49" s="153"/>
-      <c r="I49" s="153"/>
-      <c r="J49" s="153"/>
-      <c r="K49" s="153"/>
-      <c r="L49" s="153"/>
-      <c r="M49" s="153"/>
-      <c r="N49" s="153"/>
-      <c r="O49" s="154"/>
-      <c r="P49" s="139"/>
-      <c r="Q49" s="140"/>
-      <c r="R49" s="141"/>
-      <c r="S49" s="140"/>
-      <c r="T49" s="141"/>
-      <c r="U49" s="140"/>
-      <c r="V49" s="141"/>
-      <c r="W49" s="141"/>
-      <c r="X49" s="141"/>
-      <c r="Y49" s="141"/>
-      <c r="Z49" s="141"/>
-      <c r="AA49" s="141"/>
-      <c r="AB49" s="141"/>
-      <c r="AC49" s="141"/>
-      <c r="AD49" s="141"/>
-      <c r="AE49" s="142"/>
-    </row>
-    <row r="50" spans="1:31" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="151"/>
+      <c r="B49" s="152"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="152"/>
+      <c r="F49" s="152"/>
+      <c r="G49" s="152"/>
+      <c r="H49" s="152"/>
+      <c r="I49" s="152"/>
+      <c r="J49" s="152"/>
+      <c r="K49" s="152"/>
+      <c r="L49" s="152"/>
+      <c r="M49" s="152"/>
+      <c r="N49" s="152"/>
+      <c r="O49" s="153"/>
+      <c r="P49" s="138"/>
+      <c r="Q49" s="139"/>
+      <c r="R49" s="140"/>
+      <c r="S49" s="139"/>
+      <c r="T49" s="140"/>
+      <c r="U49" s="139"/>
+      <c r="V49" s="140"/>
+      <c r="W49" s="140"/>
+      <c r="X49" s="140"/>
+      <c r="Y49" s="140"/>
+      <c r="Z49" s="140"/>
+      <c r="AA49" s="140"/>
+      <c r="AB49" s="140"/>
+      <c r="AC49" s="140"/>
+      <c r="AD49" s="140"/>
+      <c r="AE49" s="141"/>
+    </row>
+    <row r="50" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -3838,69 +3759,51 @@
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
-      <c r="H50" s="10"/>
       <c r="I50" s="23"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
       <c r="O50" s="19"/>
-      <c r="P50" s="10"/>
       <c r="Q50" s="33"/>
-      <c r="R50" s="10"/>
       <c r="S50" s="33"/>
-      <c r="T50" s="10"/>
       <c r="U50" s="33"/>
-      <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
-      <c r="X50" s="10"/>
-      <c r="Y50" s="10"/>
-      <c r="Z50" s="10"/>
-      <c r="AA50" s="10"/>
-      <c r="AB50" s="10"/>
-      <c r="AC50" s="10"/>
-      <c r="AD50" s="10"/>
       <c r="AE50" s="21"/>
     </row>
-    <row r="51" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="155" t="s">
+    <row r="51" spans="1:31" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="154" t="s">
         <v>78</v>
       </c>
-      <c r="B51" s="156"/>
-      <c r="C51" s="156"/>
-      <c r="D51" s="156"/>
-      <c r="E51" s="156"/>
-      <c r="F51" s="156"/>
-      <c r="G51" s="156"/>
-      <c r="H51" s="156"/>
-      <c r="I51" s="156"/>
-      <c r="J51" s="156"/>
-      <c r="K51" s="156"/>
-      <c r="L51" s="156"/>
-      <c r="M51" s="156"/>
-      <c r="N51" s="156"/>
-      <c r="O51" s="157"/>
+      <c r="B51" s="155"/>
+      <c r="C51" s="155"/>
+      <c r="D51" s="155"/>
+      <c r="E51" s="155"/>
+      <c r="F51" s="155"/>
+      <c r="G51" s="155"/>
+      <c r="H51" s="155"/>
+      <c r="I51" s="155"/>
+      <c r="J51" s="155"/>
+      <c r="K51" s="155"/>
+      <c r="L51" s="155"/>
+      <c r="M51" s="155"/>
+      <c r="N51" s="155"/>
+      <c r="O51" s="156"/>
       <c r="P51" s="43"/>
-      <c r="Q51" s="158" t="s">
+      <c r="Q51" s="157" t="s">
         <v>79</v>
       </c>
-      <c r="R51" s="156"/>
-      <c r="S51" s="158"/>
-      <c r="T51" s="156"/>
-      <c r="U51" s="158"/>
-      <c r="V51" s="156"/>
-      <c r="W51" s="156"/>
-      <c r="X51" s="156"/>
-      <c r="Y51" s="156"/>
-      <c r="Z51" s="156"/>
-      <c r="AA51" s="156"/>
-      <c r="AB51" s="156"/>
-      <c r="AC51" s="156"/>
-      <c r="AD51" s="156"/>
-      <c r="AE51" s="157"/>
-    </row>
-    <row r="52" spans="1:31" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R51" s="155"/>
+      <c r="S51" s="157"/>
+      <c r="T51" s="155"/>
+      <c r="U51" s="157"/>
+      <c r="V51" s="155"/>
+      <c r="W51" s="155"/>
+      <c r="X51" s="155"/>
+      <c r="Y51" s="155"/>
+      <c r="Z51" s="155"/>
+      <c r="AA51" s="155"/>
+      <c r="AB51" s="155"/>
+      <c r="AC51" s="155"/>
+      <c r="AD51" s="155"/>
+      <c r="AE51" s="156"/>
+    </row>
+    <row r="52" spans="1:31" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="41"/>
       <c r="C52" s="41"/>
@@ -3934,28 +3837,22 @@
       <c r="AE52" s="46"/>
     </row>
     <row r="53" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="125" t="s">
+      <c r="A53" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="B53" s="113"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="126"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="112"/>
+      <c r="D53" s="125"/>
       <c r="E53" s="13"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="113" t="s">
+      <c r="I53" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="J53" s="113"/>
-      <c r="K53" s="113"/>
-      <c r="L53" s="126"/>
+      <c r="J53" s="112"/>
+      <c r="K53" s="112"/>
+      <c r="L53" s="125"/>
       <c r="M53" s="13"/>
-      <c r="N53" s="10"/>
       <c r="O53" s="21"/>
-      <c r="P53" s="10"/>
       <c r="Q53" s="33"/>
-      <c r="R53" s="10"/>
       <c r="S53" s="33"/>
       <c r="T53" s="3" t="s">
         <v>58</v>
@@ -3967,141 +3864,84 @@
         <v>59</v>
       </c>
       <c r="Y53" s="6"/>
-      <c r="Z53" s="10"/>
-      <c r="AA53" s="10"/>
-      <c r="AB53" s="10"/>
-      <c r="AC53" s="10"/>
-      <c r="AD53" s="10"/>
       <c r="AE53" s="21"/>
     </row>
     <row r="54" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="125" t="s">
+      <c r="A54" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="B54" s="113"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="126"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="125"/>
       <c r="E54" s="13"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="113" t="s">
+      <c r="I54" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="J54" s="113"/>
-      <c r="K54" s="113"/>
-      <c r="L54" s="126"/>
+      <c r="J54" s="112"/>
+      <c r="K54" s="112"/>
+      <c r="L54" s="125"/>
       <c r="M54" s="13"/>
-      <c r="N54" s="10"/>
       <c r="O54" s="21"/>
-      <c r="P54" s="10"/>
       <c r="Q54" s="33"/>
-      <c r="R54" s="10"/>
       <c r="S54" s="33"/>
-      <c r="T54" s="10"/>
       <c r="U54" s="33"/>
-      <c r="V54" s="10"/>
-      <c r="W54" s="10"/>
-      <c r="X54" s="10"/>
-      <c r="Y54" s="10"/>
-      <c r="Z54" s="10"/>
-      <c r="AA54" s="10"/>
-      <c r="AB54" s="10"/>
-      <c r="AC54" s="10"/>
-      <c r="AD54" s="10"/>
       <c r="AE54" s="21"/>
     </row>
     <row r="55" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="125" t="s">
+      <c r="A55" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="113"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="126"/>
+      <c r="B55" s="112"/>
+      <c r="C55" s="112"/>
+      <c r="D55" s="125"/>
       <c r="E55" s="13"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="113" t="s">
+      <c r="I55" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="J55" s="113"/>
-      <c r="K55" s="113"/>
-      <c r="L55" s="126"/>
+      <c r="J55" s="112"/>
+      <c r="K55" s="112"/>
+      <c r="L55" s="125"/>
       <c r="M55" s="13"/>
-      <c r="N55" s="10"/>
       <c r="O55" s="21"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="114" t="s">
+      <c r="Q55" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="R55" s="113"/>
-      <c r="S55" s="114"/>
-      <c r="T55" s="113"/>
-      <c r="U55" s="119"/>
-      <c r="V55" s="58"/>
-      <c r="W55" s="58"/>
-      <c r="X55" s="58"/>
-      <c r="Y55" s="58"/>
-      <c r="Z55" s="58"/>
-      <c r="AA55" s="58"/>
-      <c r="AB55" s="58"/>
-      <c r="AC55" s="58"/>
-      <c r="AD55" s="10"/>
+      <c r="R55" s="112"/>
+      <c r="S55" s="113"/>
+      <c r="T55" s="112"/>
+      <c r="U55" s="118"/>
+      <c r="V55" s="57"/>
+      <c r="W55" s="57"/>
+      <c r="X55" s="57"/>
+      <c r="Y55" s="57"/>
+      <c r="Z55" s="57"/>
+      <c r="AA55" s="57"/>
+      <c r="AB55" s="57"/>
+      <c r="AC55" s="57"/>
       <c r="AE55" s="21"/>
     </row>
     <row r="56" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="113" t="s">
+      <c r="I56" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="J56" s="113"/>
-      <c r="K56" s="58"/>
-      <c r="L56" s="58"/>
-      <c r="M56" s="58"/>
-      <c r="N56" s="58"/>
+      <c r="J56" s="112"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
+      <c r="N56" s="57"/>
       <c r="O56" s="21"/>
       <c r="P56" s="14"/>
       <c r="Q56" s="15"/>
-      <c r="R56" s="10"/>
       <c r="S56" s="33"/>
-      <c r="T56" s="10"/>
       <c r="U56" s="33"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="10"/>
-      <c r="Z56" s="10"/>
-      <c r="AA56" s="10"/>
-      <c r="AB56" s="10"/>
-      <c r="AC56" s="10"/>
-      <c r="AD56" s="10"/>
       <c r="AE56" s="21"/>
     </row>
     <row r="57" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
       <c r="O57" s="21"/>
-      <c r="P57" s="10"/>
       <c r="Q57" s="12" t="s">
         <v>86</v>
       </c>
@@ -4111,73 +3951,42 @@
       <c r="U57" s="9"/>
       <c r="V57" s="8"/>
       <c r="W57" s="19"/>
-      <c r="X57" s="159" t="s">
+      <c r="X57" s="158" t="s">
         <v>87</v>
       </c>
-      <c r="Y57" s="144"/>
-      <c r="Z57" s="144"/>
-      <c r="AA57" s="144"/>
-      <c r="AB57" s="144"/>
-      <c r="AC57" s="144"/>
-      <c r="AD57" s="144"/>
-      <c r="AE57" s="145"/>
+      <c r="Y57" s="143"/>
+      <c r="Z57" s="143"/>
+      <c r="AA57" s="143"/>
+      <c r="AB57" s="143"/>
+      <c r="AC57" s="143"/>
+      <c r="AD57" s="143"/>
+      <c r="AE57" s="144"/>
     </row>
     <row r="58" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
       <c r="O58" s="21"/>
-      <c r="P58" s="10"/>
       <c r="Q58" s="48">
         <v>1</v>
       </c>
-      <c r="R58" s="10"/>
       <c r="S58" s="48">
         <v>2</v>
       </c>
-      <c r="T58" s="10"/>
       <c r="U58" s="48">
         <v>3</v>
       </c>
-      <c r="V58" s="10"/>
       <c r="W58" s="21"/>
-      <c r="X58" s="129"/>
-      <c r="Y58" s="130"/>
-      <c r="Z58" s="130"/>
-      <c r="AA58" s="130"/>
-      <c r="AB58" s="130"/>
-      <c r="AC58" s="130"/>
-      <c r="AD58" s="130"/>
-      <c r="AE58" s="131"/>
+      <c r="X58" s="128"/>
+      <c r="Y58" s="129"/>
+      <c r="Z58" s="129"/>
+      <c r="AA58" s="129"/>
+      <c r="AB58" s="129"/>
+      <c r="AC58" s="129"/>
+      <c r="AD58" s="129"/>
+      <c r="AE58" s="130"/>
     </row>
     <row r="59" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
       <c r="O59" s="21"/>
-      <c r="P59" s="10"/>
       <c r="Q59" s="33"/>
       <c r="R59" s="13"/>
       <c r="S59" s="33"/>
@@ -4188,12 +3997,12 @@
       <c r="X59" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="Y59" s="58"/>
-      <c r="Z59" s="58"/>
-      <c r="AA59" s="58"/>
-      <c r="AB59" s="58"/>
-      <c r="AC59" s="58"/>
-      <c r="AD59" s="58"/>
+      <c r="Y59" s="57"/>
+      <c r="Z59" s="57"/>
+      <c r="AA59" s="57"/>
+      <c r="AB59" s="57"/>
+      <c r="AC59" s="57"/>
+      <c r="AD59" s="57"/>
       <c r="AE59" s="21"/>
     </row>
     <row r="60" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4220,36 +4029,18 @@
       <c r="U60" s="15"/>
       <c r="V60" s="14"/>
       <c r="W60" s="16"/>
-      <c r="X60" s="57"/>
-      <c r="Y60" s="58"/>
-      <c r="Z60" s="58"/>
-      <c r="AA60" s="58"/>
-      <c r="AB60" s="58"/>
-      <c r="AC60" s="58"/>
-      <c r="AD60" s="58"/>
-      <c r="AE60" s="59"/>
+      <c r="X60" s="56"/>
+      <c r="Y60" s="57"/>
+      <c r="Z60" s="57"/>
+      <c r="AA60" s="57"/>
+      <c r="AB60" s="57"/>
+      <c r="AC60" s="57"/>
+      <c r="AD60" s="57"/>
+      <c r="AE60" s="58"/>
     </row>
     <row r="61" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
       <c r="Q61" s="33"/>
-      <c r="R61" s="10"/>
       <c r="S61" s="33"/>
-      <c r="T61" s="10"/>
       <c r="U61" s="33"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
@@ -4260,73 +4051,20 @@
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
       <c r="AD61" s="3"/>
-      <c r="AE61" s="10"/>
     </row>
     <row r="62" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
       <c r="Q62" s="33"/>
-      <c r="R62" s="10"/>
       <c r="S62" s="33"/>
-      <c r="T62" s="10"/>
       <c r="U62" s="33"/>
-      <c r="V62" s="10"/>
-      <c r="W62" s="10"/>
-      <c r="X62" s="10"/>
-      <c r="Y62" s="10"/>
-      <c r="Z62" s="10"/>
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
       <c r="AD62" s="3"/>
-      <c r="AE62" s="10"/>
     </row>
     <row r="63" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
       <c r="Q63" s="33"/>
-      <c r="R63" s="10"/>
       <c r="S63" s="33"/>
-      <c r="T63" s="10"/>
       <c r="U63" s="33"/>
-      <c r="V63" s="10"/>
-      <c r="W63" s="10"/>
-      <c r="X63" s="10"/>
-      <c r="Y63" s="10"/>
-      <c r="Z63" s="10"/>
-      <c r="AA63" s="10"/>
-      <c r="AB63" s="10"/>
-      <c r="AC63" s="10"/>
-      <c r="AD63" s="10"/>
-      <c r="AE63" s="10"/>
     </row>
     <row r="64" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="43"/>
@@ -4362,400 +4100,83 @@
       <c r="AE64" s="43"/>
     </row>
     <row r="65" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
       <c r="Q65" s="33"/>
-      <c r="R65" s="10"/>
       <c r="S65" s="33"/>
-      <c r="T65" s="10"/>
       <c r="U65" s="33"/>
-      <c r="V65" s="10"/>
-      <c r="W65" s="10"/>
-      <c r="X65" s="10"/>
-      <c r="Y65" s="10"/>
-      <c r="Z65" s="10"/>
-      <c r="AA65" s="10"/>
-      <c r="AB65" s="10"/>
-      <c r="AC65" s="10"/>
-      <c r="AD65" s="10"/>
-      <c r="AE65" s="10"/>
     </row>
     <row r="66" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
       <c r="N66" s="23"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="33"/>
       <c r="R66" s="23"/>
       <c r="S66" s="17"/>
-      <c r="T66" s="10"/>
       <c r="U66" s="33"/>
-      <c r="V66" s="10"/>
-      <c r="W66" s="10"/>
-      <c r="X66" s="10"/>
-      <c r="Y66" s="10"/>
-      <c r="Z66" s="10"/>
-      <c r="AA66" s="10"/>
-      <c r="AB66" s="10"/>
-      <c r="AC66" s="10"/>
-      <c r="AD66" s="10"/>
-      <c r="AE66" s="10"/>
     </row>
     <row r="67" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="33"/>
-      <c r="R67" s="10"/>
       <c r="S67" s="17"/>
-      <c r="T67" s="10"/>
       <c r="U67" s="33"/>
-      <c r="V67" s="10"/>
-      <c r="W67" s="10"/>
-      <c r="X67" s="10"/>
-      <c r="Y67" s="10"/>
-      <c r="Z67" s="10"/>
-      <c r="AA67" s="10"/>
-      <c r="AB67" s="10"/>
-      <c r="AC67" s="10"/>
-      <c r="AD67" s="10"/>
-      <c r="AE67" s="10"/>
     </row>
     <row r="68" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
       <c r="N68" s="11"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
       <c r="Q68" s="33"/>
-      <c r="R68" s="10"/>
       <c r="S68" s="33"/>
-      <c r="T68" s="10"/>
       <c r="U68" s="33"/>
-      <c r="V68" s="10"/>
-      <c r="W68" s="10"/>
-      <c r="X68" s="10"/>
-      <c r="Y68" s="10"/>
-      <c r="Z68" s="10"/>
-      <c r="AA68" s="10"/>
-      <c r="AB68" s="10"/>
-      <c r="AC68" s="10"/>
-      <c r="AD68" s="10"/>
-      <c r="AE68" s="10"/>
     </row>
     <row r="69" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
       <c r="N69" s="11"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
       <c r="Q69" s="33"/>
-      <c r="R69" s="10"/>
       <c r="S69" s="33"/>
-      <c r="T69" s="10"/>
       <c r="U69" s="33"/>
-      <c r="V69" s="10"/>
-      <c r="W69" s="10"/>
-      <c r="X69" s="10"/>
-      <c r="Y69" s="10"/>
-      <c r="Z69" s="10"/>
-      <c r="AA69" s="10"/>
-      <c r="AB69" s="10"/>
-      <c r="AC69" s="10"/>
-      <c r="AD69" s="10"/>
-      <c r="AE69" s="10"/>
     </row>
     <row r="70" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
       <c r="N70" s="11"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
       <c r="Q70" s="33"/>
-      <c r="R70" s="10"/>
       <c r="S70" s="33"/>
-      <c r="T70" s="10"/>
       <c r="U70" s="33"/>
-      <c r="V70" s="10"/>
-      <c r="W70" s="10"/>
-      <c r="X70" s="10"/>
-      <c r="Y70" s="10"/>
-      <c r="Z70" s="10"/>
-      <c r="AA70" s="10"/>
-      <c r="AB70" s="10"/>
-      <c r="AC70" s="10"/>
-      <c r="AD70" s="10"/>
-      <c r="AE70" s="10"/>
     </row>
     <row r="71" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
       <c r="Q71" s="33"/>
-      <c r="R71" s="10"/>
       <c r="S71" s="17"/>
-      <c r="T71" s="10"/>
       <c r="U71" s="33"/>
-      <c r="V71" s="10"/>
-      <c r="W71" s="10"/>
-      <c r="X71" s="10"/>
-      <c r="Y71" s="10"/>
-      <c r="Z71" s="10"/>
-      <c r="AA71" s="10"/>
-      <c r="AB71" s="10"/>
-      <c r="AC71" s="10"/>
-      <c r="AD71" s="10"/>
-      <c r="AE71" s="10"/>
     </row>
     <row r="72" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
       <c r="N72" s="23"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
       <c r="Q72" s="33"/>
       <c r="R72" s="23"/>
       <c r="S72" s="17"/>
-      <c r="T72" s="10"/>
       <c r="U72" s="33"/>
-      <c r="V72" s="10"/>
-      <c r="W72" s="10"/>
-      <c r="X72" s="10"/>
-      <c r="Y72" s="10"/>
-      <c r="Z72" s="10"/>
-      <c r="AA72" s="10"/>
-      <c r="AB72" s="10"/>
-      <c r="AC72" s="10"/>
-      <c r="AD72" s="10"/>
-      <c r="AE72" s="10"/>
     </row>
     <row r="73" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
       <c r="Q73" s="33"/>
-      <c r="R73" s="10"/>
       <c r="S73" s="17"/>
-      <c r="T73" s="10"/>
       <c r="U73" s="33"/>
-      <c r="V73" s="10"/>
-      <c r="W73" s="10"/>
-      <c r="X73" s="10"/>
-      <c r="Y73" s="10"/>
-      <c r="Z73" s="10"/>
-      <c r="AA73" s="10"/>
-      <c r="AB73" s="10"/>
-      <c r="AC73" s="10"/>
-      <c r="AD73" s="10"/>
-      <c r="AE73" s="10"/>
     </row>
     <row r="74" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
       <c r="Q74" s="33"/>
-      <c r="R74" s="10"/>
       <c r="S74" s="33"/>
-      <c r="T74" s="10"/>
       <c r="U74" s="33"/>
-      <c r="V74" s="10"/>
-      <c r="W74" s="10"/>
-      <c r="X74" s="10"/>
-      <c r="Y74" s="10"/>
-      <c r="Z74" s="10"/>
-      <c r="AA74" s="10"/>
-      <c r="AB74" s="10"/>
-      <c r="AC74" s="10"/>
-      <c r="AD74" s="10"/>
-      <c r="AE74" s="10"/>
     </row>
     <row r="75" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
       <c r="Q75" s="33"/>
-      <c r="R75" s="10"/>
       <c r="S75" s="17"/>
-      <c r="T75" s="10"/>
       <c r="U75" s="33"/>
-      <c r="V75" s="10"/>
-      <c r="W75" s="10"/>
-      <c r="X75" s="10"/>
-      <c r="Y75" s="10"/>
-      <c r="Z75" s="10"/>
-      <c r="AA75" s="10"/>
-      <c r="AB75" s="10"/>
-      <c r="AC75" s="10"/>
-      <c r="AD75" s="10"/>
-      <c r="AE75" s="10"/>
     </row>
     <row r="76" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
       <c r="Q76" s="33"/>
-      <c r="R76" s="10"/>
       <c r="S76" s="33"/>
-      <c r="T76" s="10"/>
       <c r="U76" s="33"/>
-      <c r="V76" s="10"/>
-      <c r="W76" s="10"/>
-      <c r="X76" s="10"/>
-      <c r="Y76" s="10"/>
-      <c r="Z76" s="10"/>
-      <c r="AA76" s="10"/>
-      <c r="AB76" s="10"/>
-      <c r="AC76" s="10"/>
-      <c r="AD76" s="10"/>
-      <c r="AE76" s="10"/>
     </row>
     <row r="77" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="43"/>
@@ -4791,40 +4212,11 @@
       <c r="AE77" s="43"/>
     </row>
     <row r="78" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="10"/>
-      <c r="P78" s="10"/>
       <c r="Q78" s="33"/>
-      <c r="R78" s="10"/>
       <c r="S78" s="33"/>
-      <c r="T78" s="10"/>
       <c r="U78" s="33"/>
-      <c r="V78" s="10"/>
-      <c r="W78" s="10"/>
-      <c r="X78" s="10"/>
-      <c r="Y78" s="10"/>
-      <c r="Z78" s="10"/>
-      <c r="AA78" s="10"/>
-      <c r="AB78" s="10"/>
-      <c r="AC78" s="10"/>
-      <c r="AD78" s="10"/>
-      <c r="AE78" s="10"/>
     </row>
     <row r="79" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -4841,56 +4233,22 @@
       <c r="O79" s="11"/>
       <c r="P79" s="11"/>
       <c r="Q79" s="12"/>
-      <c r="R79" s="10"/>
       <c r="S79" s="12"/>
       <c r="T79" s="11"/>
       <c r="U79" s="33"/>
-      <c r="V79" s="10"/>
       <c r="W79" s="3"/>
-      <c r="X79" s="10"/>
       <c r="Y79" s="11"/>
       <c r="Z79" s="11"/>
-      <c r="AA79" s="10"/>
-      <c r="AB79" s="10"/>
-      <c r="AC79" s="10"/>
-      <c r="AD79" s="10"/>
-      <c r="AE79" s="10"/>
     </row>
     <row r="80" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
-      <c r="O80" s="10"/>
-      <c r="P80" s="10"/>
       <c r="Q80" s="33"/>
-      <c r="R80" s="10"/>
       <c r="S80" s="33"/>
-      <c r="T80" s="10"/>
       <c r="U80" s="33"/>
-      <c r="V80" s="10"/>
-      <c r="W80" s="10"/>
-      <c r="X80" s="10"/>
-      <c r="Y80" s="10"/>
-      <c r="Z80" s="10"/>
-      <c r="AA80" s="10"/>
-      <c r="AB80" s="10"/>
-      <c r="AC80" s="10"/>
-      <c r="AD80" s="10"/>
-      <c r="AE80" s="10"/>
     </row>
     <row r="81" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="10"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -4911,217 +4269,63 @@
       <c r="S81" s="12"/>
       <c r="T81" s="11"/>
       <c r="U81" s="33"/>
-      <c r="V81" s="10"/>
-      <c r="W81" s="10"/>
-      <c r="X81" s="10"/>
-      <c r="Y81" s="10"/>
-      <c r="Z81" s="10"/>
-      <c r="AA81" s="10"/>
-      <c r="AB81" s="10"/>
-      <c r="AC81" s="10"/>
-      <c r="AD81" s="10"/>
-      <c r="AE81" s="10"/>
     </row>
     <row r="82" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="10"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
-      <c r="O82" s="10"/>
-      <c r="P82" s="10"/>
       <c r="Q82" s="33"/>
-      <c r="R82" s="10"/>
       <c r="S82" s="33"/>
-      <c r="T82" s="10"/>
       <c r="U82" s="33"/>
-      <c r="V82" s="10"/>
-      <c r="W82" s="10"/>
-      <c r="X82" s="10"/>
-      <c r="Y82" s="10"/>
-      <c r="Z82" s="10"/>
-      <c r="AA82" s="10"/>
-      <c r="AB82" s="10"/>
-      <c r="AC82" s="10"/>
-      <c r="AD82" s="10"/>
-      <c r="AE82" s="10"/>
     </row>
     <row r="83" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
-      <c r="O83" s="10"/>
-      <c r="P83" s="10"/>
       <c r="Q83" s="33"/>
-      <c r="R83" s="10"/>
       <c r="S83" s="33"/>
-      <c r="T83" s="10"/>
       <c r="U83" s="33"/>
-      <c r="V83" s="10"/>
       <c r="W83" s="3"/>
       <c r="X83" s="11"/>
       <c r="Y83" s="11"/>
-      <c r="Z83" s="10"/>
-      <c r="AA83" s="10"/>
-      <c r="AB83" s="10"/>
-      <c r="AC83" s="10"/>
-      <c r="AD83" s="10"/>
-      <c r="AE83" s="10"/>
     </row>
     <row r="84" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
-      <c r="O84" s="10"/>
-      <c r="P84" s="10"/>
       <c r="Q84" s="33"/>
-      <c r="R84" s="10"/>
       <c r="S84" s="33"/>
-      <c r="T84" s="10"/>
       <c r="U84" s="33"/>
-      <c r="V84" s="10"/>
-      <c r="W84" s="10"/>
-      <c r="X84" s="10"/>
-      <c r="Y84" s="10"/>
-      <c r="Z84" s="10"/>
-      <c r="AA84" s="10"/>
-      <c r="AB84" s="10"/>
-      <c r="AC84" s="10"/>
-      <c r="AD84" s="10"/>
-      <c r="AE84" s="10"/>
     </row>
     <row r="85" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
-      <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
       <c r="Q85" s="33"/>
-      <c r="R85" s="10"/>
       <c r="S85" s="33"/>
-      <c r="T85" s="10"/>
       <c r="U85" s="33"/>
-      <c r="V85" s="10"/>
-      <c r="W85" s="10"/>
-      <c r="X85" s="10"/>
-      <c r="Y85" s="10"/>
-      <c r="Z85" s="10"/>
-      <c r="AA85" s="10"/>
-      <c r="AB85" s="10"/>
-      <c r="AC85" s="10"/>
-      <c r="AD85" s="10"/>
-      <c r="AE85" s="10"/>
     </row>
     <row r="86" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
       <c r="F86" s="3"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="10"/>
-      <c r="O86" s="10"/>
-      <c r="P86" s="10"/>
       <c r="Q86" s="33"/>
-      <c r="R86" s="10"/>
       <c r="S86" s="33"/>
-      <c r="T86" s="10"/>
       <c r="U86" s="33"/>
-      <c r="V86" s="10"/>
-      <c r="W86" s="10"/>
-      <c r="X86" s="10"/>
-      <c r="Y86" s="10"/>
       <c r="Z86" s="11"/>
       <c r="AA86" s="11"/>
       <c r="AB86" s="11"/>
       <c r="AC86" s="11"/>
       <c r="AD86" s="11"/>
-      <c r="AE86" s="10"/>
     </row>
     <row r="87" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="10"/>
-      <c r="O87" s="10"/>
-      <c r="P87" s="10"/>
       <c r="Q87" s="33"/>
-      <c r="R87" s="10"/>
       <c r="S87" s="33"/>
-      <c r="T87" s="10"/>
       <c r="U87" s="33"/>
-      <c r="V87" s="10"/>
-      <c r="W87" s="10"/>
-      <c r="X87" s="10"/>
-      <c r="Y87" s="10"/>
-      <c r="Z87" s="10"/>
-      <c r="AA87" s="10"/>
-      <c r="AB87" s="10"/>
-      <c r="AC87" s="10"/>
-      <c r="AD87" s="10"/>
-      <c r="AE87" s="10"/>
     </row>
     <row r="88" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -5151,7 +4355,6 @@
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
       <c r="AD88" s="3"/>
-      <c r="AE88" s="10"/>
     </row>
     <row r="89" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="43"/>
@@ -5187,268 +4390,44 @@
       <c r="AE89" s="43"/>
     </row>
     <row r="90" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="10"/>
-      <c r="O90" s="10"/>
-      <c r="P90" s="10"/>
       <c r="Q90" s="33"/>
-      <c r="R90" s="10"/>
       <c r="S90" s="33"/>
-      <c r="T90" s="10"/>
       <c r="U90" s="33"/>
-      <c r="V90" s="10"/>
-      <c r="W90" s="10"/>
-      <c r="X90" s="10"/>
-      <c r="Y90" s="10"/>
-      <c r="Z90" s="10"/>
-      <c r="AA90" s="10"/>
-      <c r="AB90" s="10"/>
-      <c r="AC90" s="10"/>
-      <c r="AD90" s="10"/>
-      <c r="AE90" s="10"/>
     </row>
     <row r="91" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="10"/>
-      <c r="O91" s="10"/>
-      <c r="P91" s="10"/>
       <c r="Q91" s="33"/>
-      <c r="R91" s="10"/>
       <c r="S91" s="33"/>
-      <c r="T91" s="10"/>
       <c r="U91" s="33"/>
-      <c r="V91" s="10"/>
-      <c r="W91" s="10"/>
-      <c r="X91" s="10"/>
-      <c r="Y91" s="10"/>
-      <c r="Z91" s="10"/>
-      <c r="AA91" s="10"/>
-      <c r="AB91" s="10"/>
-      <c r="AC91" s="10"/>
-      <c r="AD91" s="10"/>
-      <c r="AE91" s="10"/>
     </row>
     <row r="92" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10"/>
-      <c r="L92" s="10"/>
-      <c r="M92" s="10"/>
-      <c r="N92" s="10"/>
-      <c r="O92" s="10"/>
-      <c r="P92" s="10"/>
       <c r="Q92" s="33"/>
-      <c r="R92" s="10"/>
       <c r="S92" s="33"/>
-      <c r="T92" s="10"/>
       <c r="U92" s="33"/>
-      <c r="V92" s="10"/>
-      <c r="W92" s="10"/>
-      <c r="X92" s="10"/>
-      <c r="Y92" s="10"/>
-      <c r="Z92" s="10"/>
-      <c r="AA92" s="10"/>
-      <c r="AB92" s="10"/>
-      <c r="AC92" s="10"/>
-      <c r="AD92" s="10"/>
-      <c r="AE92" s="10"/>
     </row>
     <row r="93" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10"/>
-      <c r="L93" s="10"/>
-      <c r="M93" s="10"/>
-      <c r="N93" s="10"/>
-      <c r="O93" s="10"/>
-      <c r="P93" s="10"/>
       <c r="Q93" s="33"/>
-      <c r="R93" s="10"/>
       <c r="S93" s="33"/>
-      <c r="T93" s="10"/>
       <c r="U93" s="33"/>
-      <c r="V93" s="10"/>
-      <c r="W93" s="10"/>
-      <c r="X93" s="10"/>
-      <c r="Y93" s="10"/>
-      <c r="Z93" s="10"/>
-      <c r="AA93" s="10"/>
-      <c r="AB93" s="10"/>
-      <c r="AC93" s="10"/>
-      <c r="AD93" s="10"/>
-      <c r="AE93" s="10"/>
     </row>
     <row r="94" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10"/>
-      <c r="L94" s="10"/>
-      <c r="M94" s="10"/>
-      <c r="N94" s="10"/>
-      <c r="O94" s="10"/>
-      <c r="P94" s="10"/>
       <c r="Q94" s="33"/>
-      <c r="R94" s="10"/>
       <c r="S94" s="33"/>
-      <c r="T94" s="10"/>
       <c r="U94" s="33"/>
-      <c r="V94" s="10"/>
-      <c r="W94" s="10"/>
-      <c r="X94" s="10"/>
-      <c r="Y94" s="10"/>
-      <c r="Z94" s="10"/>
-      <c r="AA94" s="10"/>
-      <c r="AB94" s="10"/>
-      <c r="AC94" s="10"/>
-      <c r="AD94" s="10"/>
-      <c r="AE94" s="10"/>
     </row>
     <row r="95" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="10"/>
-      <c r="M95" s="10"/>
-      <c r="N95" s="10"/>
-      <c r="O95" s="10"/>
-      <c r="P95" s="10"/>
       <c r="Q95" s="33"/>
-      <c r="R95" s="10"/>
       <c r="S95" s="33"/>
-      <c r="T95" s="10"/>
       <c r="U95" s="33"/>
-      <c r="V95" s="10"/>
-      <c r="W95" s="10"/>
-      <c r="X95" s="10"/>
-      <c r="Y95" s="10"/>
-      <c r="Z95" s="10"/>
-      <c r="AA95" s="10"/>
-      <c r="AB95" s="10"/>
-      <c r="AC95" s="10"/>
-      <c r="AD95" s="10"/>
-      <c r="AE95" s="10"/>
     </row>
     <row r="96" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="10"/>
-      <c r="M96" s="10"/>
-      <c r="N96" s="10"/>
-      <c r="O96" s="10"/>
-      <c r="P96" s="10"/>
       <c r="Q96" s="33"/>
-      <c r="R96" s="10"/>
       <c r="S96" s="33"/>
-      <c r="T96" s="10"/>
       <c r="U96" s="33"/>
-      <c r="V96" s="10"/>
-      <c r="W96" s="10"/>
-      <c r="X96" s="10"/>
-      <c r="Y96" s="10"/>
-      <c r="Z96" s="10"/>
-      <c r="AA96" s="10"/>
-      <c r="AB96" s="10"/>
-      <c r="AC96" s="10"/>
-      <c r="AD96" s="10"/>
-      <c r="AE96" s="10"/>
     </row>
     <row r="97" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
-      <c r="L97" s="10"/>
-      <c r="M97" s="10"/>
-      <c r="N97" s="10"/>
-      <c r="O97" s="10"/>
-      <c r="P97" s="10"/>
       <c r="Q97" s="33"/>
-      <c r="R97" s="10"/>
       <c r="S97" s="33"/>
-      <c r="T97" s="10"/>
       <c r="U97" s="33"/>
-      <c r="V97" s="10"/>
-      <c r="W97" s="10"/>
-      <c r="X97" s="10"/>
-      <c r="Y97" s="10"/>
-      <c r="Z97" s="10"/>
-      <c r="AA97" s="10"/>
-      <c r="AB97" s="10"/>
-      <c r="AC97" s="10"/>
-      <c r="AD97" s="10"/>
-      <c r="AE97" s="10"/>
     </row>
     <row r="98" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="43"/>
@@ -5484,136 +4463,24 @@
       <c r="AE98" s="43"/>
     </row>
     <row r="99" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
-      <c r="K99" s="10"/>
-      <c r="L99" s="10"/>
-      <c r="M99" s="10"/>
-      <c r="N99" s="10"/>
-      <c r="O99" s="10"/>
-      <c r="P99" s="10"/>
       <c r="Q99" s="33"/>
-      <c r="R99" s="10"/>
       <c r="S99" s="33"/>
-      <c r="T99" s="10"/>
       <c r="U99" s="33"/>
-      <c r="V99" s="10"/>
-      <c r="W99" s="10"/>
-      <c r="X99" s="10"/>
-      <c r="Y99" s="10"/>
-      <c r="Z99" s="10"/>
-      <c r="AA99" s="10"/>
-      <c r="AB99" s="10"/>
-      <c r="AC99" s="10"/>
-      <c r="AD99" s="10"/>
-      <c r="AE99" s="10"/>
     </row>
     <row r="100" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
-      <c r="K100" s="10"/>
-      <c r="L100" s="10"/>
-      <c r="M100" s="10"/>
-      <c r="N100" s="10"/>
-      <c r="O100" s="10"/>
-      <c r="P100" s="10"/>
       <c r="Q100" s="33"/>
-      <c r="R100" s="10"/>
       <c r="S100" s="33"/>
-      <c r="T100" s="10"/>
       <c r="U100" s="33"/>
-      <c r="V100" s="10"/>
-      <c r="W100" s="10"/>
-      <c r="X100" s="10"/>
-      <c r="Y100" s="10"/>
-      <c r="Z100" s="10"/>
-      <c r="AA100" s="10"/>
-      <c r="AB100" s="10"/>
-      <c r="AC100" s="10"/>
-      <c r="AD100" s="10"/>
-      <c r="AE100" s="10"/>
     </row>
     <row r="101" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10"/>
-      <c r="K101" s="10"/>
-      <c r="L101" s="10"/>
-      <c r="M101" s="10"/>
-      <c r="N101" s="10"/>
-      <c r="O101" s="10"/>
-      <c r="P101" s="10"/>
       <c r="Q101" s="33"/>
-      <c r="R101" s="10"/>
       <c r="S101" s="33"/>
-      <c r="T101" s="10"/>
       <c r="U101" s="33"/>
-      <c r="V101" s="10"/>
-      <c r="W101" s="10"/>
-      <c r="X101" s="10"/>
-      <c r="Y101" s="10"/>
-      <c r="Z101" s="10"/>
-      <c r="AA101" s="10"/>
-      <c r="AB101" s="10"/>
-      <c r="AC101" s="10"/>
-      <c r="AD101" s="10"/>
-      <c r="AE101" s="10"/>
     </row>
     <row r="102" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="10"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10"/>
-      <c r="L102" s="10"/>
-      <c r="M102" s="10"/>
-      <c r="N102" s="10"/>
-      <c r="O102" s="10"/>
-      <c r="P102" s="10"/>
       <c r="Q102" s="33"/>
-      <c r="R102" s="10"/>
       <c r="S102" s="33"/>
-      <c r="T102" s="10"/>
       <c r="U102" s="33"/>
-      <c r="V102" s="10"/>
-      <c r="W102" s="10"/>
-      <c r="X102" s="10"/>
-      <c r="Y102" s="10"/>
-      <c r="Z102" s="10"/>
-      <c r="AA102" s="10"/>
-      <c r="AB102" s="10"/>
-      <c r="AC102" s="10"/>
-      <c r="AD102" s="10"/>
-      <c r="AE102" s="10"/>
     </row>
     <row r="103" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="41"/>
